--- a/doc/Specification/1020_プロト_黒板アクションゲーム仕様.xlsx
+++ b/doc/Specification/1020_プロト_黒板アクションゲーム仕様.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-noshi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3D5F47-543E-4A89-98DB-DB359F1ADF18}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE958A-18A0-48F3-9FF7-9EEB4A8C38D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" tabRatio="839" xr2:uid="{2D8AB876-9EAB-4A1D-BB8B-10ECBC41C0D6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" tabRatio="839" activeTab="3" xr2:uid="{2D8AB876-9EAB-4A1D-BB8B-10ECBC41C0D6}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="4" r:id="rId1"/>
     <sheet name="プロト要件" sheetId="8" r:id="rId2"/>
     <sheet name="フロー" sheetId="11" r:id="rId3"/>
-    <sheet name="メインゲーム画面" sheetId="9" r:id="rId4"/>
-    <sheet name="プレイヤー操作" sheetId="7" r:id="rId5"/>
-    <sheet name="キャラ・チョーク・黒板消し" sheetId="10" r:id="rId6"/>
-    <sheet name="デザイン要素洗い出し" sheetId="6" r:id="rId7"/>
-    <sheet name="テンプレ" sheetId="2" r:id="rId8"/>
-    <sheet name="キャラ" sheetId="3" r:id="rId9"/>
+    <sheet name="メニュー画面" sheetId="12" r:id="rId4"/>
+    <sheet name="メインゲーム画面" sheetId="9" r:id="rId5"/>
+    <sheet name="プレイヤー操作" sheetId="7" r:id="rId6"/>
+    <sheet name="キャラ・チョーク・黒板消し" sheetId="10" r:id="rId7"/>
+    <sheet name="デザイン要素洗い出し" sheetId="6" r:id="rId8"/>
+    <sheet name="テンプレ" sheetId="2" r:id="rId9"/>
+    <sheet name="キャラ" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="259">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -2294,13 +2295,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■メニュー表示</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・メニュー表示/メニュー内の選択</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
@@ -2334,13 +2328,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・要件</t>
-    <rPh sb="1" eb="3">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・操作方法を確認できる場所を作る</t>
     <rPh sb="1" eb="3">
       <t>ソウサ</t>
@@ -2439,6 +2426,546 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■メニュー画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼画面要素</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・イメージ画像</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メインゲームプレイ中に、switchコントローラーの「＋ボタン」もしくは「－ボタン」を押すと画面に以下の要素を表示する。</t>
+    <rPh sb="10" eb="11">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・操作方法の説明画像</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲーム進行の選択ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼メニュー画面概要</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メニュー画面の表示方法</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼操作方法の説明画像</t>
+    <rPh sb="1" eb="3">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メニュー画面はポップアップとして、メインゲーム画面の上に表示する。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メニュー画面の目的</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面表示時、メインゲームの進行は停止し、画面全体にマスクをかける。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・枠内にジョイコン画像と各ボタンの役割を記載する。</t>
+    <rPh sb="1" eb="3">
+      <t>ワクナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヤクワリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼ジョイコン画像</t>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左右どちらのジョイコンともとれるよう、簡略化したイラストにします。</t>
+    <rPh sb="0" eb="2">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリャク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作に必要なボタン（スティック/十字ボタン）と、</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジュウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持つ方向指標用にSL/SRボタンを載せ、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームボタンや＋/-ボタンは載せません。</t>
+  </si>
+  <si>
+    <t>←イメージ（ARMSの操作方法画像）</t>
+    <rPh sb="11" eb="13">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼各ボタンの役割</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・説明を以下の要素に分け記載し、ジョイコンの対象ボタンに線を引く。</t>
+    <rPh sb="1" eb="3">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出し</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンイラスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「キャラクター」「チョーク」「黒板消し」のどの操作に関係するか。</t>
+    <rPh sb="15" eb="17">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象ボタンのイラスト。(左右ジョイコンでボタン名が違うため)</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ボタンを押したときの説明。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼ゲーム進行の選択ボタン</t>
+    <rPh sb="4" eb="6">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ゲーム進行の選択ボタンを2つ表示。</t>
+    <rPh sb="4" eb="6">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面を閉じ、メインゲーム画面の進行に戻る。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインゲームを終了し、プレイ人数選択画面まで戻る。</t>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目説明</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押したときの挙動。</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームをつづける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームをやめる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ジョイコンのスティックで「ゲームをつづける」か「ゲームをやめるか」の選択を行う。</t>
+    <rPh sb="35" eb="37">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在選択している方が分かるように、選択しているボタンを大きく表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓「ゲームをつづける」選択中</t>
+    <rPh sb="11" eb="14">
+      <t>センタクチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓「ゲームをやめる」選択中</t>
+    <rPh sb="10" eb="13">
+      <t>センタクチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョイコンの「Xボタン/→(上)ボタン」を押して、現在選択しているボタンの決定。</t>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メニュー画面を開いた時は、「ゲームをつづける」ボタンを選択した状態で表示する。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ジョイコンのイラスト。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面の概要と画面要素を追加。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2486,7 +3013,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2541,8 +3068,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2645,13 +3178,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2728,6 +3298,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5005,8 +5611,40 @@
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>リトライ選択</a:t>
+            <a:t>ゲーム終了選択</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プレイ人数選択に戻る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5072,7 +5710,7 @@
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>「リトライしますか？」</a:t>
+            <a:t>「ゲームを終了しますか？」</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5747,6 +6385,1914 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="右中かっこ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE9447B-D482-469E-ADA5-13BAC04745F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5118100" y="4000500"/>
+          <a:ext cx="196850" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7024061-5AA5-4B16-A867-FF654DE18E00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5511800" y="4572000"/>
+          <a:ext cx="1574800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>操作方法の説明画像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右中かっこ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD21584E-2CAA-4108-B2EE-6B85F6E9C0BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5118100" y="5461000"/>
+          <a:ext cx="196850" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C10FF4-2AD7-4855-B7D2-F2A87E4A4DAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5511800" y="5715000"/>
+          <a:ext cx="1574800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ゲーム進行の選択ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>73599</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D6F11A-ADEA-43EE-A071-3B0346A0E5A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="3810000"/>
+          <a:ext cx="4404299" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>173891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3A1865-83FA-483C-9A6A-C5B61A1B052B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="520700" y="7222391"/>
+          <a:ext cx="4330700" cy="2061309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15" descr="é¢é£ç»å">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6ADB88C-4CE1-4696-B8EB-D4FEA92B2531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="34322" t="33898" r="31196" b="40678"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5708650" y="8572500"/>
+          <a:ext cx="1771650" cy="734785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5DC8C5-061C-43C0-AF5D-6F45DD08EA16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5759450" y="11112500"/>
+          <a:ext cx="3689350" cy="762000"/>
+          <a:chOff x="5200650" y="11049000"/>
+          <a:chExt cx="3689350" cy="762000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="グループ化 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24B3467-D6EA-4ECB-A754-444227A196CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="6299200" y="11083687"/>
+            <a:ext cx="1696510" cy="727313"/>
+            <a:chOff x="1932511" y="1829447"/>
+            <a:chExt cx="1696510" cy="727313"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="吹き出し: 折線 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D5EA34-D485-499D-89DB-887DFAA1757D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2376471" y="2099559"/>
+              <a:ext cx="1252550" cy="457200"/>
+            </a:xfrm>
+            <a:prstGeom prst="borderCallout2">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val 8312"/>
+                <a:gd name="adj2" fmla="val -42010"/>
+                <a:gd name="adj3" fmla="val 8290"/>
+                <a:gd name="adj4" fmla="val -67222"/>
+                <a:gd name="adj5" fmla="val -127289"/>
+                <a:gd name="adj6" fmla="val -96348"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="19050"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="r"/>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>ジャンプ</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="正方形/長方形 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5B153C-B1B9-4055-A5C4-5E3DAB5893EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1932511" y="1829447"/>
+              <a:ext cx="1696509" cy="264114"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent4"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent4"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>キャラクター</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="20" name="グループ化 19">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE2931F-61E4-4A50-B2A3-E7948A041BFB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1932512" y="2099560"/>
+              <a:ext cx="443956" cy="457200"/>
+              <a:chOff x="1774825" y="2099560"/>
+              <a:chExt cx="443956" cy="457200"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="21" name="正方形/長方形 20">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3060C0-F22E-405D-92D8-90BC650D183B}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="1774825" y="2099560"/>
+                <a:ext cx="443956" cy="457200"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent4">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent4"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent4"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                <a:prstTxWarp prst="textNoShape">
+                  <a:avLst/>
+                </a:prstTxWarp>
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle>
+                <a:defPPr>
+                  <a:defRPr lang="ja-JP"/>
+                </a:defPPr>
+                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl1pPr>
+                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl2pPr>
+                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl3pPr>
+                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl4pPr>
+                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl5pPr>
+                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl6pPr>
+                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl7pPr>
+                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl8pPr>
+                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:lvl9pPr>
+              </a:lstStyle>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="22" name="グループ化 21">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFE9584-4C6F-413E-B330-415735F4EE5A}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="1826699" y="2162650"/>
+                <a:ext cx="349232" cy="331018"/>
+                <a:chOff x="7454909" y="872716"/>
+                <a:chExt cx="349232" cy="331018"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="23" name="楕円 22">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310E5567-A002-4EFA-ACD4-53C4AACA34E9}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7566557" y="872716"/>
+                  <a:ext cx="125936" cy="125936"/>
+                </a:xfrm>
+                <a:prstGeom prst="ellipse">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle>
+                  <a:defPPr>
+                    <a:defRPr lang="ja-JP"/>
+                  </a:defPPr>
+                  <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl1pPr>
+                  <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl2pPr>
+                  <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl3pPr>
+                  <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl4pPr>
+                  <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl5pPr>
+                  <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl6pPr>
+                  <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl7pPr>
+                  <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl8pPr>
+                  <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl9pPr>
+                </a:lstStyle>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="24" name="楕円 23">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416D8E8E-C5AE-4FDF-B5CA-B59FCB8094A8}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7678205" y="975257"/>
+                  <a:ext cx="125936" cy="125936"/>
+                </a:xfrm>
+                <a:prstGeom prst="ellipse">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle>
+                  <a:defPPr>
+                    <a:defRPr lang="ja-JP"/>
+                  </a:defPPr>
+                  <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl1pPr>
+                  <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl2pPr>
+                  <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl3pPr>
+                  <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl4pPr>
+                  <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl5pPr>
+                  <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl6pPr>
+                  <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl7pPr>
+                  <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl8pPr>
+                  <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl9pPr>
+                </a:lstStyle>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="25" name="楕円 24">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D006FD5-9CC8-4F0F-BEF2-20B0FC3B51E7}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7566557" y="1077798"/>
+                  <a:ext cx="125936" cy="125936"/>
+                </a:xfrm>
+                <a:prstGeom prst="ellipse">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle>
+                  <a:defPPr>
+                    <a:defRPr lang="ja-JP"/>
+                  </a:defPPr>
+                  <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl1pPr>
+                  <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl2pPr>
+                  <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl3pPr>
+                  <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl4pPr>
+                  <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl5pPr>
+                  <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl6pPr>
+                  <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl7pPr>
+                  <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl8pPr>
+                  <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl9pPr>
+                </a:lstStyle>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" b="1"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="26" name="楕円 25">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD161E00-3C9F-400A-BD8B-9667C71AE572}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7454909" y="976664"/>
+                  <a:ext cx="125936" cy="125936"/>
+                </a:xfrm>
+                <a:prstGeom prst="ellipse">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="C00000"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+                  <a:prstTxWarp prst="textNoShape">
+                    <a:avLst/>
+                  </a:prstTxWarp>
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle>
+                  <a:defPPr>
+                    <a:defRPr lang="ja-JP"/>
+                  </a:defPPr>
+                  <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl1pPr>
+                  <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl2pPr>
+                  <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl3pPr>
+                  <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl4pPr>
+                  <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl5pPr>
+                  <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl6pPr>
+                  <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl7pPr>
+                  <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl8pPr>
+                  <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:lvl9pPr>
+                </a:lstStyle>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" b="1"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="吹き出し: 四角形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDBA6343-6FE1-4509-9F80-C94C90E98A26}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8102600" y="11049000"/>
+            <a:ext cx="787400" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -67607"/>
+              <a:gd name="adj2" fmla="val 12500"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>見出し</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="吹き出し: 四角形 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8357358-1F59-4292-ACE4-D55A772877E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8070850" y="11493500"/>
+            <a:ext cx="787400" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -67607"/>
+              <a:gd name="adj2" fmla="val 12500"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>説明</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="吹き出し: 四角形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE5347C-0E3C-461F-BE1E-BD295CA1F841}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5200650" y="11620500"/>
+            <a:ext cx="946150" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 75027"/>
+              <a:gd name="adj2" fmla="val -57500"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ボタンイラスト</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>130750</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA715B7-C46D-4B5F-920A-07336CBD9649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="23933" t="65384" r="23933"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="12738100"/>
+          <a:ext cx="2296100" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>89946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA46909-4D4B-47D8-B32A-9DCED5440ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="23933" t="65384" r="23933"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="787400" y="14668500"/>
+          <a:ext cx="1771650" cy="661446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>83921</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD9EE56-765A-4FE4-AE54-902A08126283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="24019" t="69231" r="24019"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2952750" y="14668500"/>
+          <a:ext cx="1968500" cy="655421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6618,7 +9164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10823,7 +13369,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13847,7 +16393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6BC40-0828-4540-9383-98FBF190F863}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -13977,16 +16523,22 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="3">
+        <v>43442</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2"/>
@@ -14007,6 +16559,85 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5077EB6F-3EB0-4A0A-9B4F-D36450DD8CD2}">
+  <dimension ref="B1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="2.58203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14137,7 +16768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4EE734-CD07-47D3-BE09-B2514973494D}">
   <dimension ref="A1:BC79"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP56" sqref="AP56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -14151,7 +16784,7 @@
     </row>
     <row r="3" spans="1:55" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -14206,7 +16839,7 @@
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -14713,7 +17346,7 @@
     <row r="22" spans="12:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L22" s="25"/>
       <c r="M22" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
@@ -14763,7 +17396,7 @@
     <row r="23" spans="12:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L23" s="25"/>
       <c r="M23" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
@@ -14813,7 +17446,7 @@
     <row r="24" spans="12:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L24" s="25"/>
       <c r="M24" s="25" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
@@ -14861,7 +17494,7 @@
     <row r="25" spans="12:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L25" s="25"/>
       <c r="M25" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
@@ -17312,8 +19945,443 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBE4DCD-B2D8-428B-B077-B5EB9D9C008A}">
+  <dimension ref="A1:BA88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="2.58203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1"/>
+      <c r="B36" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="AB51" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="8"/>
+      <c r="AN51" s="8"/>
+      <c r="AO51" s="8"/>
+      <c r="AP51" s="8"/>
+      <c r="AQ51" s="8"/>
+      <c r="AR51" s="8"/>
+      <c r="AS51" s="8"/>
+      <c r="AT51" s="8"/>
+      <c r="AU51" s="8"/>
+      <c r="AV51" s="8"/>
+      <c r="AW51" s="8"/>
+    </row>
+    <row r="52" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC52" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F53" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R53"/>
+      <c r="AD53" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="27"/>
+      <c r="AG53" s="27"/>
+      <c r="AH53" s="27"/>
+      <c r="AI53" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ53" s="27"/>
+      <c r="AK53" s="27"/>
+      <c r="AL53" s="27"/>
+      <c r="AM53" s="27"/>
+      <c r="AN53" s="27"/>
+      <c r="AO53" s="27"/>
+      <c r="AP53" s="27"/>
+      <c r="AQ53" s="27"/>
+      <c r="AR53" s="27"/>
+      <c r="AS53" s="27"/>
+      <c r="AT53" s="27"/>
+      <c r="AU53" s="27"/>
+      <c r="AV53" s="27"/>
+      <c r="AW53" s="27"/>
+      <c r="AX53" s="27"/>
+      <c r="AY53" s="27"/>
+      <c r="AZ53" s="27"/>
+      <c r="BA53" s="27"/>
+    </row>
+    <row r="54" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G54" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD54" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ54" s="26"/>
+      <c r="AK54" s="26"/>
+      <c r="AL54" s="26"/>
+      <c r="AM54" s="26"/>
+      <c r="AN54" s="26"/>
+      <c r="AO54" s="26"/>
+      <c r="AP54" s="26"/>
+      <c r="AQ54" s="26"/>
+      <c r="AR54" s="26"/>
+      <c r="AS54" s="26"/>
+      <c r="AT54" s="26"/>
+      <c r="AU54" s="26"/>
+      <c r="AV54" s="26"/>
+      <c r="AW54" s="26"/>
+      <c r="AX54" s="26"/>
+      <c r="AY54" s="26"/>
+      <c r="AZ54" s="26"/>
+      <c r="BA54" s="26"/>
+    </row>
+    <row r="55" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G55" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD55" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="28"/>
+      <c r="AG55" s="28"/>
+      <c r="AH55" s="28"/>
+      <c r="AI55" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ55" s="26"/>
+      <c r="AK55" s="26"/>
+      <c r="AL55" s="26"/>
+      <c r="AM55" s="26"/>
+      <c r="AN55" s="26"/>
+      <c r="AO55" s="26"/>
+      <c r="AP55" s="26"/>
+      <c r="AQ55" s="26"/>
+      <c r="AR55" s="26"/>
+      <c r="AS55" s="26"/>
+      <c r="AT55" s="26"/>
+      <c r="AU55" s="26"/>
+      <c r="AV55" s="26"/>
+      <c r="AW55" s="26"/>
+      <c r="AX55" s="26"/>
+      <c r="AY55" s="26"/>
+      <c r="AZ55" s="26"/>
+      <c r="BA55" s="26"/>
+    </row>
+    <row r="56" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD56" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="28"/>
+      <c r="AG56" s="28"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ56" s="26"/>
+      <c r="AK56" s="26"/>
+      <c r="AL56" s="26"/>
+      <c r="AM56" s="26"/>
+      <c r="AN56" s="26"/>
+      <c r="AO56" s="26"/>
+      <c r="AP56" s="26"/>
+      <c r="AQ56" s="26"/>
+      <c r="AR56" s="26"/>
+      <c r="AS56" s="26"/>
+      <c r="AT56" s="26"/>
+      <c r="AU56" s="26"/>
+      <c r="AV56" s="26"/>
+      <c r="AW56" s="26"/>
+      <c r="AX56" s="26"/>
+      <c r="AY56" s="26"/>
+      <c r="AZ56" s="26"/>
+      <c r="BA56" s="26"/>
+    </row>
+    <row r="58" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P58" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1"/>
+      <c r="B66" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q69" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="R69" s="30"/>
+      <c r="S69" s="30"/>
+      <c r="T69" s="30"/>
+      <c r="U69" s="30"/>
+      <c r="V69" s="31"/>
+      <c r="W69" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="30"/>
+      <c r="AA69" s="30"/>
+      <c r="AB69" s="30"/>
+      <c r="AC69" s="30"/>
+      <c r="AD69" s="30"/>
+      <c r="AE69" s="30"/>
+      <c r="AF69" s="30"/>
+      <c r="AG69" s="30"/>
+      <c r="AH69" s="30"/>
+      <c r="AI69" s="30"/>
+      <c r="AJ69" s="30"/>
+      <c r="AK69" s="30"/>
+      <c r="AL69" s="31"/>
+    </row>
+    <row r="70" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q70" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="R70" s="36"/>
+      <c r="S70" s="36"/>
+      <c r="T70" s="36"/>
+      <c r="U70" s="36"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="X70" s="33"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="33"/>
+      <c r="AA70" s="33"/>
+      <c r="AB70" s="33"/>
+      <c r="AC70" s="33"/>
+      <c r="AD70" s="33"/>
+      <c r="AE70" s="33"/>
+      <c r="AF70" s="33"/>
+      <c r="AG70" s="33"/>
+      <c r="AH70" s="33"/>
+      <c r="AI70" s="33"/>
+      <c r="AJ70" s="33"/>
+      <c r="AK70" s="33"/>
+      <c r="AL70" s="34"/>
+    </row>
+    <row r="71" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q71" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="X71" s="33"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="33"/>
+      <c r="AA71" s="33"/>
+      <c r="AB71" s="33"/>
+      <c r="AC71" s="33"/>
+      <c r="AD71" s="33"/>
+      <c r="AE71" s="33"/>
+      <c r="AF71" s="33"/>
+      <c r="AG71" s="33"/>
+      <c r="AH71" s="33"/>
+      <c r="AI71" s="33"/>
+      <c r="AJ71" s="33"/>
+      <c r="AK71" s="33"/>
+      <c r="AL71" s="34"/>
+    </row>
+    <row r="75" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E77" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="W71:AL71"/>
+    <mergeCell ref="Q69:V69"/>
+    <mergeCell ref="Q70:V70"/>
+    <mergeCell ref="Q71:V71"/>
+    <mergeCell ref="AI53:BA53"/>
+    <mergeCell ref="AD53:AH53"/>
+    <mergeCell ref="W69:AL69"/>
+    <mergeCell ref="W70:AL70"/>
+    <mergeCell ref="AD55:AH55"/>
+    <mergeCell ref="AD56:AH56"/>
+    <mergeCell ref="AD54:AH54"/>
+    <mergeCell ref="AI54:BA54"/>
+    <mergeCell ref="AI55:BA55"/>
+    <mergeCell ref="AI56:BA56"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5010C5C8-309F-4D4D-9C5A-8B6FBBCFF849}">
-  <dimension ref="A1:W90"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17479,28 +20547,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C65" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D66" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D67" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="6" t="s">
+    <row r="65" spans="2:2" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17511,13 +20559,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6082FE64-253B-4E67-BB4A-0A4930E64BB7}">
   <dimension ref="A1:AP90"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -17824,7 +20870,7 @@
     </row>
     <row r="75" spans="5:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E75" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -17876,11 +20922,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C14B8-36F2-4A6D-B897-7521E40003D0}">
   <dimension ref="A1:AP115"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
@@ -18343,7 +21389,7 @@
     </row>
     <row r="99" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D99" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="2:2" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -18358,12 +21404,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CAF97E-7F85-4091-BC46-99C152FE06B4}">
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -18571,7 +21617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379D893A-D850-47F1-9C33-CAA4CBC190C6}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -18671,83 +21717,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5077EB6F-3EB0-4A0A-9B4F-D36450DD8CD2}">
-  <dimension ref="B1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="16384" width="2.58203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/Specification/1020_プロト_黒板アクションゲーム仕様.xlsx
+++ b/doc/Specification/1020_プロト_黒板アクションゲーム仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-noshi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE958A-18A0-48F3-9FF7-9EEB4A8C38D9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B9389-2F73-4EE8-B2FA-8D315556418F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" tabRatio="839" activeTab="3" xr2:uid="{2D8AB876-9EAB-4A1D-BB8B-10ECBC41C0D6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="更新履歴" sheetId="4" r:id="rId1"/>
     <sheet name="プロト要件" sheetId="8" r:id="rId2"/>
     <sheet name="フロー" sheetId="11" r:id="rId3"/>
-    <sheet name="メニュー画面" sheetId="12" r:id="rId4"/>
+    <sheet name="ポーズ画面" sheetId="12" r:id="rId4"/>
     <sheet name="メインゲーム画面" sheetId="9" r:id="rId5"/>
     <sheet name="プレイヤー操作" sheetId="7" r:id="rId6"/>
     <sheet name="キャラ・チョーク・黒板消し" sheetId="10" r:id="rId7"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="265">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -2315,19 +2315,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニュー表示/メニュー内の選択時の操作を追加。</t>
-    <rPh sb="15" eb="16">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・操作方法を確認できる場所を作る</t>
     <rPh sb="1" eb="3">
       <t>ソウサ</t>
@@ -2430,13 +2417,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■メニュー画面</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>▼画面要素</t>
     <rPh sb="1" eb="3">
       <t>ガメン</t>
@@ -2484,29 +2464,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>▼メニュー画面概要</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・メニュー画面の表示方法</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>▼操作方法の説明画像</t>
     <rPh sb="1" eb="3">
       <t>ソウサ</t>
@@ -2523,57 +2480,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・メニュー画面はポップアップとして、メインゲーム画面の上に表示する。</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・メニュー画面の目的</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モクテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー画面表示時、メインゲームの進行は停止し、画面全体にマスクをかける。</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ゼンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・枠内にジョイコン画像と各ボタンの役割を記載する。</t>
     <rPh sb="1" eb="3">
       <t>ワクナイ</t>
@@ -2684,13 +2590,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>見出し</t>
-    <rPh sb="0" eb="2">
-      <t>ミダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボタンイラスト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2702,22 +2601,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「キャラクター」「チョーク」「黒板消し」のどの操作に関係するか。</t>
-    <rPh sb="15" eb="17">
-      <t>コクバン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>対象ボタンのイラスト。(左右ジョイコンでボタン名が違うため)</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
@@ -2770,25 +2653,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニュー画面を閉じ、メインゲーム画面の進行に戻る。</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シンコウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メインゲームを終了し、プレイ人数選択画面まで戻る。</t>
     <rPh sb="7" eb="9">
       <t>シュウリョウ</t>
@@ -2918,54 +2782,265 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・メニュー画面を開いた時は、「ゲームをつづける」ボタンを選択した状態で表示する。</t>
+    <t>・ジョイコンのイラスト。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・キャラはステージ内を自由に動かせます。</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼キャラの移動/ジャンプ</t>
     <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ジョイコンのイラスト。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー画面</t>
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・以下の状況では、キャラからチョーク/黒板消しへ切り替えることはできません。</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ジャンプ/落下中</t>
+    <rPh sb="6" eb="9">
+      <t>ラッカチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼キャラの死亡/復活</t>
+    <rPh sb="5" eb="7">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フッカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・死亡～復活完了まで</t>
+    <rPh sb="1" eb="3">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・キャラは、ステージ下部</t>
+    <rPh sb="10" eb="12">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ポーズ画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニュー画面の概要と画面要素を追加。</t>
+    <t>・ポーズ画面の目的</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
     <rPh sb="7" eb="9">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼ポーズ画面概要</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>ガイヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポーズ画面の表示方法</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポーズ画面はポップアップとして、メインゲーム画面の上に表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ画面表示時、メインゲームの進行は停止し、画面全体にマスクをかける。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ画面を閉じ、メインゲーム画面の進行に戻る。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポーズ画面を開いた時は、「ゲームをつづける」ボタンを選択した状態で表示する。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ表示/ポーズ内の選択時の操作を追加。</t>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ画面の概要と画面要素を追加。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・各十字ボタンの操作説明は、まとめて記載する。</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウサ</t>
+    </rPh>
     <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ツイカ</t>
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3300,13 +3375,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3318,15 +3393,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3334,6 +3400,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6386,6 +6461,56 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>73599</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFA41E0-D92F-4ADD-B252-79117AF96643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="3810000"/>
+          <a:ext cx="4404299" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
@@ -6660,106 +6785,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>73599</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D6F11A-ADEA-43EE-A071-3B0346A0E5A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="590550" y="3810000"/>
-          <a:ext cx="4404299" cy="2476500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>173891</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3A1865-83FA-483C-9A6A-C5B61A1B052B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="520700" y="7222391"/>
-          <a:ext cx="4330700" cy="2061309"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>57</xdr:row>
@@ -6785,7 +6810,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6817,1342 +6842,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="31" name="グループ化 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5DC8C5-061C-43C0-AF5D-6F45DD08EA16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5759450" y="11112500"/>
-          <a:ext cx="3689350" cy="762000"/>
-          <a:chOff x="5200650" y="11049000"/>
-          <a:chExt cx="3689350" cy="762000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="17" name="グループ化 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B24B3467-D6EA-4ECB-A754-444227A196CE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6299200" y="11083687"/>
-            <a:ext cx="1696510" cy="727313"/>
-            <a:chOff x="1932511" y="1829447"/>
-            <a:chExt cx="1696510" cy="727313"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="吹き出し: 折線 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D5EA34-D485-499D-89DB-887DFAA1757D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2376471" y="2099559"/>
-              <a:ext cx="1252550" cy="457200"/>
-            </a:xfrm>
-            <a:prstGeom prst="borderCallout2">
-              <a:avLst>
-                <a:gd name="adj1" fmla="val 8312"/>
-                <a:gd name="adj2" fmla="val -42010"/>
-                <a:gd name="adj3" fmla="val 8290"/>
-                <a:gd name="adj4" fmla="val -67222"/>
-                <a:gd name="adj5" fmla="val -127289"/>
-                <a:gd name="adj6" fmla="val -96348"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln w="19050"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent4"/>
-            </a:lnRef>
-            <a:fillRef idx="2">
-              <a:schemeClr val="accent4"/>
-            </a:fillRef>
-            <a:effectRef idx="1">
-              <a:schemeClr val="accent4"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="r"/>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>ジャンプ</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1050">
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="正方形/長方形 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5B153C-B1B9-4055-A5C4-5E3DAB5893EA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1932511" y="1829447"/>
-              <a:ext cx="1696509" cy="264114"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="19050"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent4"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent4"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>キャラクター</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="20" name="グループ化 19">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE2931F-61E4-4A50-B2A3-E7948A041BFB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="1932512" y="2099560"/>
-              <a:ext cx="443956" cy="457200"/>
-              <a:chOff x="1774825" y="2099560"/>
-              <a:chExt cx="443956" cy="457200"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="21" name="正方形/長方形 20">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3060C0-F22E-405D-92D8-90BC650D183B}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="1774825" y="2099560"/>
-                <a:ext cx="443956" cy="457200"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent4">
-                  <a:shade val="50000"/>
-                </a:schemeClr>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="accent4"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent4"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="lt1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                <a:prstTxWarp prst="textNoShape">
-                  <a:avLst/>
-                </a:prstTxWarp>
-                <a:noAutofit/>
-              </a:bodyPr>
-              <a:lstStyle>
-                <a:defPPr>
-                  <a:defRPr lang="ja-JP"/>
-                </a:defPPr>
-                <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl1pPr>
-                <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl2pPr>
-                <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl3pPr>
-                <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl4pPr>
-                <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl5pPr>
-                <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl6pPr>
-                <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl7pPr>
-                <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl8pPr>
-                <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                  <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:lvl9pPr>
-              </a:lstStyle>
-              <a:p>
-                <a:pPr algn="ctr"/>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                  <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:grpSp>
-            <xdr:nvGrpSpPr>
-              <xdr:cNvPr id="22" name="グループ化 21">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFE9584-4C6F-413E-B330-415735F4EE5A}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvGrpSpPr/>
-            </xdr:nvGrpSpPr>
-            <xdr:grpSpPr>
-              <a:xfrm>
-                <a:off x="1826699" y="2162650"/>
-                <a:ext cx="349232" cy="331018"/>
-                <a:chOff x="7454909" y="872716"/>
-                <a:chExt cx="349232" cy="331018"/>
-              </a:xfrm>
-            </xdr:grpSpPr>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="23" name="楕円 22">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310E5567-A002-4EFA-ACD4-53C4AACA34E9}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="7566557" y="872716"/>
-                  <a:ext cx="125936" cy="125936"/>
-                </a:xfrm>
-                <a:prstGeom prst="ellipse">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="C00000"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                  <a:prstTxWarp prst="textNoShape">
-                    <a:avLst/>
-                  </a:prstTxWarp>
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle>
-                  <a:defPPr>
-                    <a:defRPr lang="ja-JP"/>
-                  </a:defPPr>
-                  <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl1pPr>
-                  <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl2pPr>
-                  <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl3pPr>
-                  <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl4pPr>
-                  <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl5pPr>
-                  <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl6pPr>
-                  <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl7pPr>
-                  <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl8pPr>
-                  <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl9pPr>
-                </a:lstStyle>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="24" name="楕円 23">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416D8E8E-C5AE-4FDF-B5CA-B59FCB8094A8}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="7678205" y="975257"/>
-                  <a:ext cx="125936" cy="125936"/>
-                </a:xfrm>
-                <a:prstGeom prst="ellipse">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="C00000"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                  <a:prstTxWarp prst="textNoShape">
-                    <a:avLst/>
-                  </a:prstTxWarp>
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle>
-                  <a:defPPr>
-                    <a:defRPr lang="ja-JP"/>
-                  </a:defPPr>
-                  <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl1pPr>
-                  <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl2pPr>
-                  <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl3pPr>
-                  <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl4pPr>
-                  <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl5pPr>
-                  <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl6pPr>
-                  <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl7pPr>
-                  <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl8pPr>
-                  <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl9pPr>
-                </a:lstStyle>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="25" name="楕円 24">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D006FD5-9CC8-4F0F-BEF2-20B0FC3B51E7}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="7566557" y="1077798"/>
-                  <a:ext cx="125936" cy="125936"/>
-                </a:xfrm>
-                <a:prstGeom prst="ellipse">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:srgbClr val="C00000"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="C00000"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                  <a:prstTxWarp prst="textNoShape">
-                    <a:avLst/>
-                  </a:prstTxWarp>
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle>
-                  <a:defPPr>
-                    <a:defRPr lang="ja-JP"/>
-                  </a:defPPr>
-                  <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl1pPr>
-                  <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl2pPr>
-                  <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl3pPr>
-                  <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl4pPr>
-                  <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl5pPr>
-                  <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl6pPr>
-                  <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl7pPr>
-                  <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl8pPr>
-                  <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl9pPr>
-                </a:lstStyle>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" b="1"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-            <xdr:sp macro="" textlink="">
-              <xdr:nvSpPr>
-                <xdr:cNvPr id="26" name="楕円 25">
-                  <a:extLst>
-                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD161E00-3C9F-400A-BD8B-9667C71AE572}"/>
-                    </a:ext>
-                  </a:extLst>
-                </xdr:cNvPr>
-                <xdr:cNvSpPr/>
-              </xdr:nvSpPr>
-              <xdr:spPr>
-                <a:xfrm>
-                  <a:off x="7454909" y="976664"/>
-                  <a:ext cx="125936" cy="125936"/>
-                </a:xfrm>
-                <a:prstGeom prst="ellipse">
-                  <a:avLst/>
-                </a:prstGeom>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:solidFill>
-                    <a:srgbClr val="C00000"/>
-                  </a:solidFill>
-                </a:ln>
-              </xdr:spPr>
-              <xdr:style>
-                <a:lnRef idx="2">
-                  <a:schemeClr val="accent1">
-                    <a:shade val="50000"/>
-                  </a:schemeClr>
-                </a:lnRef>
-                <a:fillRef idx="1">
-                  <a:schemeClr val="accent1"/>
-                </a:fillRef>
-                <a:effectRef idx="0">
-                  <a:schemeClr val="accent1"/>
-                </a:effectRef>
-                <a:fontRef idx="minor">
-                  <a:schemeClr val="lt1"/>
-                </a:fontRef>
-              </xdr:style>
-              <xdr:txBody>
-                <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-                  <a:prstTxWarp prst="textNoShape">
-                    <a:avLst/>
-                  </a:prstTxWarp>
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle>
-                  <a:defPPr>
-                    <a:defRPr lang="ja-JP"/>
-                  </a:defPPr>
-                  <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl1pPr>
-                  <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl2pPr>
-                  <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl3pPr>
-                  <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl4pPr>
-                  <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl5pPr>
-                  <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl6pPr>
-                  <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl7pPr>
-                  <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl8pPr>
-                  <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                    <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:lvl9pPr>
-                </a:lstStyle>
-                <a:p>
-                  <a:pPr algn="ctr"/>
-                  <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" b="1"/>
-                </a:p>
-              </xdr:txBody>
-            </xdr:sp>
-          </xdr:grpSp>
-        </xdr:grpSp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="吹き出し: 四角形 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDBA6343-6FE1-4509-9F80-C94C90E98A26}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8102600" y="11049000"/>
-            <a:ext cx="787400" cy="190500"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -67607"/>
-              <a:gd name="adj2" fmla="val 12500"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>見出し</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="吹き出し: 四角形 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8357358-1F59-4292-ACE4-D55A772877E6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8070850" y="11493500"/>
-            <a:ext cx="787400" cy="190500"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -67607"/>
-              <a:gd name="adj2" fmla="val 12500"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>説明</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="吹き出し: 四角形 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE5347C-0E3C-461F-BE1E-BD295CA1F841}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5200650" y="11620500"/>
-            <a:ext cx="946150" cy="190500"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 75027"/>
-              <a:gd name="adj2" fmla="val -57500"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ボタンイラスト</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>130750</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8169,7 +6869,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8195,13 +6895,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>89946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8244,13 +6944,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>83921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8289,11 +6989,111 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>71833</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{229DB405-5A24-4C70-81F8-929860D696B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="7239000"/>
+          <a:ext cx="4402533" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>13795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269A00F3-0579-43A1-BC67-9D0674BC901C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="9525000"/>
+          <a:ext cx="3740150" cy="2109295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -8309,10 +7109,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="図 66">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD2A0F4-D15F-4742-B512-2BDF8CDD0DD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF09A976-8456-4227-9772-9E92472E8F9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8321,7 +7121,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8346,56 +7146,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>13795</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="図 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA81A05-2ACA-49C1-BDB7-CF9DB6B5860C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4724400" y="9525000"/>
-          <a:ext cx="3740150" cy="2109295"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -8405,14 +7155,14 @@
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>28904</xdr:rowOff>
+      <xdr:rowOff>28903</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="図 64">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DC3716-7E33-487A-AB0A-A498406A2B0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76E3E36-17A0-45FD-A822-64072B24518C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8435,7 +7185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2165350" y="5905500"/>
-          <a:ext cx="5118100" cy="2886404"/>
+          <a:ext cx="5118100" cy="2886403"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16526,7 +15276,7 @@
         <v>202</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -16534,10 +15284,10 @@
         <v>43442</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -16645,7 +15395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B47895F-CE42-4BB3-B7F1-62F803F24501}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -16784,7 +15534,7 @@
     </row>
     <row r="3" spans="1:55" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -16839,7 +15589,7 @@
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -17346,7 +16096,7 @@
     <row r="22" spans="12:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L22" s="25"/>
       <c r="M22" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
@@ -17396,7 +16146,7 @@
     <row r="23" spans="12:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L23" s="25"/>
       <c r="M23" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
@@ -17446,7 +16196,7 @@
     <row r="24" spans="12:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L24" s="25"/>
       <c r="M24" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
@@ -17494,7 +16244,7 @@
     <row r="25" spans="12:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L25" s="25"/>
       <c r="M25" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
@@ -19946,7 +18696,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBE4DCD-B2D8-428B-B077-B5EB9D9C008A}">
-  <dimension ref="A1:BA88"/>
+  <dimension ref="A1:BA86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -19957,83 +18707,83 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="5" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="1" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="2:2" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" s="8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -20057,7 +18807,7 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
       <c r="AB51" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
@@ -20081,296 +18831,271 @@
       <c r="AV51" s="8"/>
       <c r="AW51" s="8"/>
     </row>
-    <row r="52" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E52" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="AC52" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R53"/>
+      <c r="AD53" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35"/>
+      <c r="AQ53" s="35"/>
+      <c r="AR53" s="35"/>
+      <c r="AS53" s="35"/>
+      <c r="AT53" s="35"/>
+      <c r="AU53" s="35"/>
+      <c r="AV53" s="35"/>
+      <c r="AW53" s="35"/>
+      <c r="AX53" s="35"/>
+      <c r="AY53" s="35"/>
+      <c r="AZ53" s="35"/>
+      <c r="BA53" s="35"/>
+    </row>
+    <row r="54" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G54" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD54" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE54" s="36"/>
+      <c r="AF54" s="36"/>
+      <c r="AG54" s="36"/>
+      <c r="AH54" s="36"/>
+      <c r="AI54" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ54" s="37"/>
+      <c r="AK54" s="37"/>
+      <c r="AL54" s="37"/>
+      <c r="AM54" s="37"/>
+      <c r="AN54" s="37"/>
+      <c r="AO54" s="37"/>
+      <c r="AP54" s="37"/>
+      <c r="AQ54" s="37"/>
+      <c r="AR54" s="37"/>
+      <c r="AS54" s="37"/>
+      <c r="AT54" s="37"/>
+      <c r="AU54" s="37"/>
+      <c r="AV54" s="37"/>
+      <c r="AW54" s="37"/>
+      <c r="AX54" s="37"/>
+      <c r="AY54" s="37"/>
+      <c r="AZ54" s="37"/>
+      <c r="BA54" s="37"/>
+    </row>
+    <row r="55" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G55" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD55" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE55" s="36"/>
+      <c r="AF55" s="36"/>
+      <c r="AG55" s="36"/>
+      <c r="AH55" s="36"/>
+      <c r="AI55" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="AJ55" s="37"/>
+      <c r="AK55" s="37"/>
+      <c r="AL55" s="37"/>
+      <c r="AM55" s="37"/>
+      <c r="AN55" s="37"/>
+      <c r="AO55" s="37"/>
+      <c r="AP55" s="37"/>
+      <c r="AQ55" s="37"/>
+      <c r="AR55" s="37"/>
+      <c r="AS55" s="37"/>
+      <c r="AT55" s="37"/>
+      <c r="AU55" s="37"/>
+      <c r="AV55" s="37"/>
+      <c r="AW55" s="37"/>
+      <c r="AX55" s="37"/>
+      <c r="AY55" s="37"/>
+      <c r="AZ55" s="37"/>
+      <c r="BA55" s="37"/>
+    </row>
+    <row r="56" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G56" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AD57" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P58" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:53" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1"/>
+      <c r="B64" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q67" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="31"/>
+      <c r="W67" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="30"/>
+      <c r="AC67" s="30"/>
+      <c r="AD67" s="30"/>
+      <c r="AE67" s="30"/>
+      <c r="AF67" s="30"/>
+      <c r="AG67" s="30"/>
+      <c r="AH67" s="30"/>
+      <c r="AI67" s="30"/>
+      <c r="AJ67" s="30"/>
+      <c r="AK67" s="30"/>
+      <c r="AL67" s="31"/>
+    </row>
+    <row r="68" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q68" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="27"/>
+      <c r="AD68" s="27"/>
+      <c r="AE68" s="27"/>
+      <c r="AF68" s="27"/>
+      <c r="AG68" s="27"/>
+      <c r="AH68" s="27"/>
+      <c r="AI68" s="27"/>
+      <c r="AJ68" s="27"/>
+      <c r="AK68" s="27"/>
+      <c r="AL68" s="28"/>
+    </row>
+    <row r="69" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q69" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="26" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="53" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F53" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="R53"/>
-      <c r="AD53" s="27" t="s">
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="27"/>
+      <c r="AD69" s="27"/>
+      <c r="AE69" s="27"/>
+      <c r="AF69" s="27"/>
+      <c r="AG69" s="27"/>
+      <c r="AH69" s="27"/>
+      <c r="AI69" s="27"/>
+      <c r="AJ69" s="27"/>
+      <c r="AK69" s="27"/>
+      <c r="AL69" s="28"/>
+    </row>
+    <row r="73" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="AE53" s="27"/>
-      <c r="AF53" s="27"/>
-      <c r="AG53" s="27"/>
-      <c r="AH53" s="27"/>
-      <c r="AI53" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="AJ53" s="27"/>
-      <c r="AK53" s="27"/>
-      <c r="AL53" s="27"/>
-      <c r="AM53" s="27"/>
-      <c r="AN53" s="27"/>
-      <c r="AO53" s="27"/>
-      <c r="AP53" s="27"/>
-      <c r="AQ53" s="27"/>
-      <c r="AR53" s="27"/>
-      <c r="AS53" s="27"/>
-      <c r="AT53" s="27"/>
-      <c r="AU53" s="27"/>
-      <c r="AV53" s="27"/>
-      <c r="AW53" s="27"/>
-      <c r="AX53" s="27"/>
-      <c r="AY53" s="27"/>
-      <c r="AZ53" s="27"/>
-      <c r="BA53" s="27"/>
-    </row>
-    <row r="54" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G54" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD54" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE54" s="28"/>
-      <c r="AF54" s="28"/>
-      <c r="AG54" s="28"/>
-      <c r="AH54" s="28"/>
-      <c r="AI54" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="AJ54" s="26"/>
-      <c r="AK54" s="26"/>
-      <c r="AL54" s="26"/>
-      <c r="AM54" s="26"/>
-      <c r="AN54" s="26"/>
-      <c r="AO54" s="26"/>
-      <c r="AP54" s="26"/>
-      <c r="AQ54" s="26"/>
-      <c r="AR54" s="26"/>
-      <c r="AS54" s="26"/>
-      <c r="AT54" s="26"/>
-      <c r="AU54" s="26"/>
-      <c r="AV54" s="26"/>
-      <c r="AW54" s="26"/>
-      <c r="AX54" s="26"/>
-      <c r="AY54" s="26"/>
-      <c r="AZ54" s="26"/>
-      <c r="BA54" s="26"/>
-    </row>
-    <row r="55" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G55" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD55" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="28"/>
-      <c r="AG55" s="28"/>
-      <c r="AH55" s="28"/>
-      <c r="AI55" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ55" s="26"/>
-      <c r="AK55" s="26"/>
-      <c r="AL55" s="26"/>
-      <c r="AM55" s="26"/>
-      <c r="AN55" s="26"/>
-      <c r="AO55" s="26"/>
-      <c r="AP55" s="26"/>
-      <c r="AQ55" s="26"/>
-      <c r="AR55" s="26"/>
-      <c r="AS55" s="26"/>
-      <c r="AT55" s="26"/>
-      <c r="AU55" s="26"/>
-      <c r="AV55" s="26"/>
-      <c r="AW55" s="26"/>
-      <c r="AX55" s="26"/>
-      <c r="AY55" s="26"/>
-      <c r="AZ55" s="26"/>
-      <c r="BA55" s="26"/>
-    </row>
-    <row r="56" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G56" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD56" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE56" s="28"/>
-      <c r="AF56" s="28"/>
-      <c r="AG56" s="28"/>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="AJ56" s="26"/>
-      <c r="AK56" s="26"/>
-      <c r="AL56" s="26"/>
-      <c r="AM56" s="26"/>
-      <c r="AN56" s="26"/>
-      <c r="AO56" s="26"/>
-      <c r="AP56" s="26"/>
-      <c r="AQ56" s="26"/>
-      <c r="AR56" s="26"/>
-      <c r="AS56" s="26"/>
-      <c r="AT56" s="26"/>
-      <c r="AU56" s="26"/>
-      <c r="AV56" s="26"/>
-      <c r="AW56" s="26"/>
-      <c r="AX56" s="26"/>
-      <c r="AY56" s="26"/>
-      <c r="AZ56" s="26"/>
-      <c r="BA56" s="26"/>
-    </row>
-    <row r="58" spans="4:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P58" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:38" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="1"/>
-      <c r="B66" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C68" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q69" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="31"/>
-      <c r="W69" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="X69" s="30"/>
-      <c r="Y69" s="30"/>
-      <c r="Z69" s="30"/>
-      <c r="AA69" s="30"/>
-      <c r="AB69" s="30"/>
-      <c r="AC69" s="30"/>
-      <c r="AD69" s="30"/>
-      <c r="AE69" s="30"/>
-      <c r="AF69" s="30"/>
-      <c r="AG69" s="30"/>
-      <c r="AH69" s="30"/>
-      <c r="AI69" s="30"/>
-      <c r="AJ69" s="30"/>
-      <c r="AK69" s="30"/>
-      <c r="AL69" s="31"/>
-    </row>
-    <row r="70" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q70" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="R70" s="36"/>
-      <c r="S70" s="36"/>
-      <c r="T70" s="36"/>
-      <c r="U70" s="36"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="X70" s="33"/>
-      <c r="Y70" s="33"/>
-      <c r="Z70" s="33"/>
-      <c r="AA70" s="33"/>
-      <c r="AB70" s="33"/>
-      <c r="AC70" s="33"/>
-      <c r="AD70" s="33"/>
-      <c r="AE70" s="33"/>
-      <c r="AF70" s="33"/>
-      <c r="AG70" s="33"/>
-      <c r="AH70" s="33"/>
-      <c r="AI70" s="33"/>
-      <c r="AJ70" s="33"/>
-      <c r="AK70" s="33"/>
-      <c r="AL70" s="34"/>
-    </row>
-    <row r="71" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q71" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="33"/>
-      <c r="Z71" s="33"/>
-      <c r="AA71" s="33"/>
-      <c r="AB71" s="33"/>
-      <c r="AC71" s="33"/>
-      <c r="AD71" s="33"/>
-      <c r="AE71" s="33"/>
-      <c r="AF71" s="33"/>
-      <c r="AG71" s="33"/>
-      <c r="AH71" s="33"/>
-      <c r="AI71" s="33"/>
-      <c r="AJ71" s="33"/>
-      <c r="AK71" s="33"/>
-      <c r="AL71" s="34"/>
-    </row>
-    <row r="75" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C75" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="76" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D76" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="77" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E77" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D82" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C84" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="6" t="s">
+    </row>
+    <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C82" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="W71:AL71"/>
+  <mergeCells count="12">
+    <mergeCell ref="W69:AL69"/>
+    <mergeCell ref="Q67:V67"/>
+    <mergeCell ref="Q68:V68"/>
     <mergeCell ref="Q69:V69"/>
-    <mergeCell ref="Q70:V70"/>
-    <mergeCell ref="Q71:V71"/>
     <mergeCell ref="AI53:BA53"/>
     <mergeCell ref="AD53:AH53"/>
-    <mergeCell ref="W69:AL69"/>
-    <mergeCell ref="W70:AL70"/>
+    <mergeCell ref="W67:AL67"/>
+    <mergeCell ref="W68:AL68"/>
+    <mergeCell ref="AD54:AH54"/>
     <mergeCell ref="AD55:AH55"/>
-    <mergeCell ref="AD56:AH56"/>
-    <mergeCell ref="AD54:AH54"/>
     <mergeCell ref="AI54:BA54"/>
     <mergeCell ref="AI55:BA55"/>
-    <mergeCell ref="AI56:BA56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20924,10 +19649,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C14B8-36F2-4A6D-B897-7521E40003D0}">
-  <dimension ref="A1:AP115"/>
+  <dimension ref="A1:AP131"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -21328,79 +20053,193 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="M81"/>
     </row>
-    <row r="84" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F84" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="2:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:42" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C89" s="1" t="s">
+    <row r="89" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="8"/>
+      <c r="AC89" s="8"/>
+      <c r="AD89" s="8"/>
+      <c r="AE89" s="8"/>
+      <c r="AF89" s="8"/>
+      <c r="AG89" s="8"/>
+      <c r="AH89" s="8"/>
+      <c r="AI89" s="8"/>
+      <c r="AJ89" s="8"/>
+      <c r="AK89" s="8"/>
+      <c r="AL89" s="8"/>
+      <c r="AM89" s="8"/>
+      <c r="AN89" s="8"/>
+      <c r="AO89" s="8"/>
+      <c r="AP89" s="8"/>
+    </row>
+    <row r="90" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D92" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E93" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E94" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C96" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
+      <c r="X96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="8"/>
+      <c r="AB96" s="8"/>
+      <c r="AC96" s="8"/>
+      <c r="AD96" s="8"/>
+      <c r="AE96" s="8"/>
+      <c r="AF96" s="8"/>
+      <c r="AG96" s="8"/>
+      <c r="AH96" s="8"/>
+      <c r="AI96" s="8"/>
+      <c r="AJ96" s="8"/>
+      <c r="AK96" s="8"/>
+      <c r="AL96" s="8"/>
+      <c r="AM96" s="8"/>
+      <c r="AN96" s="8"/>
+      <c r="AO96" s="8"/>
+      <c r="AP96" s="8"/>
+    </row>
+    <row r="97" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D97" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C105" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D90" s="1" t="s">
+    <row r="106" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D106" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D92" s="1" t="s">
+    <row r="108" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D108" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E93" s="1" t="s">
+    <row r="109" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E109" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="94" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F94" s="1" t="s">
+    <row r="110" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F110" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E95" s="1" t="s">
+    <row r="111" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E111" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="96" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F96" s="1" t="s">
+    <row r="112" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F112" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G97" s="1" t="s">
+    <row r="113" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G113" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D99" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B115" s="6" t="s">
+    <row r="115" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" s="6" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/Specification/1020_プロト_黒板アクションゲーム仕様.xlsx
+++ b/doc/Specification/1020_プロト_黒板アクションゲーム仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-noshi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37B9389-2F73-4EE8-B2FA-8D315556418F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152F47D3-177E-4A7B-B78D-AAE652317268}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" tabRatio="839" activeTab="3" xr2:uid="{2D8AB876-9EAB-4A1D-BB8B-10ECBC41C0D6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4020" tabRatio="839" xr2:uid="{2D8AB876-9EAB-4A1D-BB8B-10ECBC41C0D6}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="277">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -2039,132 +2039,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メモ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・キャラはジャンプ/落下中は、チョーク/黒板消しへ切り替えることはできない。</t>
-    <rPh sb="10" eb="12">
-      <t>ラッカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コクバン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・操作切替後の各アイコンの場所</t>
-    <rPh sb="1" eb="3">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キリカエ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>⇒</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チョーク/黒板消し</t>
-    <rPh sb="5" eb="7">
-      <t>コクバン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>切替前に、最後にキャラがいた場所</t>
-    <rPh sb="0" eb="2">
-      <t>キリカエ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最後にチョークor黒板消しがいた場所</t>
-    <rPh sb="0" eb="2">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コクバン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チョーク→黒板消しに切り替える場合は、チョークがあった場所に黒板消しが出る。</t>
-    <rPh sb="5" eb="7">
-      <t>コクバン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>コクバン</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フロー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2370,22 +2244,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ちょーく操作時、キャラは薄く表示しておく</t>
-    <rPh sb="5" eb="7">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2人プレイ</t>
     <rPh sb="1" eb="2">
       <t>ヒト</t>
@@ -2858,13 +2716,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・キャラは、ステージ下部</t>
-    <rPh sb="10" eb="12">
-      <t>カブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■ポーズ画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -3041,6 +2892,446 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・復活時、キャラは薄く表示。</t>
+    <rPh sb="1" eb="3">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復活開始～復活完了まで、1秒ごとに通常表示状態と薄い表示状態で点滅させる。</t>
+    <rPh sb="0" eb="2">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・キャラは、ステージ下部のトゲに当たると死亡状態となります。</t>
+    <rPh sb="10" eb="12">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・死亡アニメーション再生後、スタート地点にて復活します。</t>
+    <rPh sb="1" eb="3">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フッカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・死亡～復活完了するまで、プレイヤーはキャラクターを操作できません。</t>
+    <rPh sb="1" eb="3">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（死亡したことへのペナルティ）</t>
+    <rPh sb="1" eb="3">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復活開始から5秒経過で復活完了。キャラクター操作可能になります。</t>
+    <rPh sb="0" eb="2">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フッカツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■キャラクター/チョーク/黒板消しの操作切替</t>
+    <rPh sb="13" eb="15">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キリカエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・キャラからチョーク/黒板消しへ操作を切り替えた場合</t>
+    <rPh sb="11" eb="13">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼操作切替後のキャラ/チョーク/黒板消しの表示場所</t>
+    <rPh sb="1" eb="3">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼操作切替後のキャラ表示について</t>
+    <rPh sb="1" eb="3">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（キャラ位置を見失わないようにするため）</t>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミウシナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼キャラが触れているオブジェクトに黒板消しを使用する場合</t>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（チョーク操作中に自キャラが乗っていたオブジェクトが消された！、などの状況を作らないため）</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12/8追加</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チョーク/黒板消しからキャラに操作を切り替えた場合</t>
+    <rPh sb="6" eb="8">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒最後にキャラがいた位置にキャラを表示します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⇒キャラの上にチョークor黒板消しを表示します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・キャラ→チョーク/黒板消しに操作を切り替えた場合、キャラは居た位置で薄く表示させておきます。</t>
+    <rPh sb="10" eb="12">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・キャラがオブジェクトに乗っているなど、前後1秒の間にキャラが触れていたオブジェクトは、黒板消しでオブジェクト選択できないようにします。</t>
+    <rPh sb="12" eb="13">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、未操作状態のキャラが触れているオブジェクトについても、黒板消しは使用できません。</t>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ操作と、切替時の挙動について追加。</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キリカエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒板消しの項目に、キャラが触れてるオブジェクトについての挙動を追加。</t>
+    <rPh sb="0" eb="2">
+      <t>コクバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3296,7 +3587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3373,6 +3664,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15143,7 +15437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C6BC40-0828-4540-9383-98FBF190F863}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15255,28 +15549,28 @@
         <v>43421</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -15284,21 +15578,27 @@
         <v>43442</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
@@ -15395,7 +15695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B47895F-CE42-4BB3-B7F1-62F803F24501}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15518,9 +15818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4EE734-CD07-47D3-BE09-B2514973494D}">
   <dimension ref="A1:BC79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP56" sqref="AP56"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15534,7 +15832,7 @@
     </row>
     <row r="3" spans="1:55" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -15552,7 +15850,7 @@
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -15576,7 +15874,7 @@
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -15589,7 +15887,7 @@
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -15613,7 +15911,7 @@
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -15979,7 +16277,7 @@
       <c r="AH19" s="25"/>
       <c r="AI19" s="25"/>
       <c r="AJ19" s="25" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AK19" s="25"/>
       <c r="AL19" s="25"/>
@@ -16096,7 +16394,7 @@
     <row r="22" spans="12:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L22" s="25"/>
       <c r="M22" s="25" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
@@ -16106,7 +16404,7 @@
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="25" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="V22" s="25"/>
       <c r="W22" s="25"/>
@@ -16146,7 +16444,7 @@
     <row r="23" spans="12:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L23" s="25"/>
       <c r="M23" s="25" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
@@ -16156,7 +16454,7 @@
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="25" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
@@ -16196,7 +16494,7 @@
     <row r="24" spans="12:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L24" s="25"/>
       <c r="M24" s="25" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
@@ -16244,7 +16542,7 @@
     <row r="25" spans="12:55" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L25" s="25"/>
       <c r="M25" s="25" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
@@ -18698,7 +18996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBE4DCD-B2D8-428B-B077-B5EB9D9C008A}">
   <dimension ref="A1:BA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -18707,83 +19005,83 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="5" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="2:2" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -18807,7 +19105,7 @@
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
       <c r="AB51" s="8" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AC51" s="8"/>
       <c r="AD51" s="8"/>
@@ -18833,248 +19131,248 @@
     </row>
     <row r="52" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E52" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F53" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="R53"/>
-      <c r="AD53" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE53" s="35"/>
-      <c r="AF53" s="35"/>
-      <c r="AG53" s="35"/>
-      <c r="AH53" s="35"/>
-      <c r="AI53" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ53" s="35"/>
-      <c r="AK53" s="35"/>
-      <c r="AL53" s="35"/>
-      <c r="AM53" s="35"/>
-      <c r="AN53" s="35"/>
-      <c r="AO53" s="35"/>
-      <c r="AP53" s="35"/>
-      <c r="AQ53" s="35"/>
-      <c r="AR53" s="35"/>
-      <c r="AS53" s="35"/>
-      <c r="AT53" s="35"/>
-      <c r="AU53" s="35"/>
-      <c r="AV53" s="35"/>
-      <c r="AW53" s="35"/>
-      <c r="AX53" s="35"/>
-      <c r="AY53" s="35"/>
-      <c r="AZ53" s="35"/>
-      <c r="BA53" s="35"/>
+      <c r="AD53" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE53" s="36"/>
+      <c r="AF53" s="36"/>
+      <c r="AG53" s="36"/>
+      <c r="AH53" s="36"/>
+      <c r="AI53" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ53" s="36"/>
+      <c r="AK53" s="36"/>
+      <c r="AL53" s="36"/>
+      <c r="AM53" s="36"/>
+      <c r="AN53" s="36"/>
+      <c r="AO53" s="36"/>
+      <c r="AP53" s="36"/>
+      <c r="AQ53" s="36"/>
+      <c r="AR53" s="36"/>
+      <c r="AS53" s="36"/>
+      <c r="AT53" s="36"/>
+      <c r="AU53" s="36"/>
+      <c r="AV53" s="36"/>
+      <c r="AW53" s="36"/>
+      <c r="AX53" s="36"/>
+      <c r="AY53" s="36"/>
+      <c r="AZ53" s="36"/>
+      <c r="BA53" s="36"/>
     </row>
     <row r="54" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G54" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD54" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE54" s="36"/>
-      <c r="AF54" s="36"/>
-      <c r="AG54" s="36"/>
-      <c r="AH54" s="36"/>
-      <c r="AI54" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ54" s="37"/>
-      <c r="AK54" s="37"/>
-      <c r="AL54" s="37"/>
-      <c r="AM54" s="37"/>
-      <c r="AN54" s="37"/>
-      <c r="AO54" s="37"/>
-      <c r="AP54" s="37"/>
-      <c r="AQ54" s="37"/>
-      <c r="AR54" s="37"/>
-      <c r="AS54" s="37"/>
-      <c r="AT54" s="37"/>
-      <c r="AU54" s="37"/>
-      <c r="AV54" s="37"/>
-      <c r="AW54" s="37"/>
-      <c r="AX54" s="37"/>
-      <c r="AY54" s="37"/>
-      <c r="AZ54" s="37"/>
-      <c r="BA54" s="37"/>
+        <v>211</v>
+      </c>
+      <c r="AD54" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE54" s="37"/>
+      <c r="AF54" s="37"/>
+      <c r="AG54" s="37"/>
+      <c r="AH54" s="37"/>
+      <c r="AI54" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ54" s="38"/>
+      <c r="AK54" s="38"/>
+      <c r="AL54" s="38"/>
+      <c r="AM54" s="38"/>
+      <c r="AN54" s="38"/>
+      <c r="AO54" s="38"/>
+      <c r="AP54" s="38"/>
+      <c r="AQ54" s="38"/>
+      <c r="AR54" s="38"/>
+      <c r="AS54" s="38"/>
+      <c r="AT54" s="38"/>
+      <c r="AU54" s="38"/>
+      <c r="AV54" s="38"/>
+      <c r="AW54" s="38"/>
+      <c r="AX54" s="38"/>
+      <c r="AY54" s="38"/>
+      <c r="AZ54" s="38"/>
+      <c r="BA54" s="38"/>
     </row>
     <row r="55" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G55" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD55" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="AE55" s="36"/>
-      <c r="AF55" s="36"/>
-      <c r="AG55" s="36"/>
-      <c r="AH55" s="36"/>
-      <c r="AI55" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ55" s="37"/>
-      <c r="AK55" s="37"/>
-      <c r="AL55" s="37"/>
-      <c r="AM55" s="37"/>
-      <c r="AN55" s="37"/>
-      <c r="AO55" s="37"/>
-      <c r="AP55" s="37"/>
-      <c r="AQ55" s="37"/>
-      <c r="AR55" s="37"/>
-      <c r="AS55" s="37"/>
-      <c r="AT55" s="37"/>
-      <c r="AU55" s="37"/>
-      <c r="AV55" s="37"/>
-      <c r="AW55" s="37"/>
-      <c r="AX55" s="37"/>
-      <c r="AY55" s="37"/>
-      <c r="AZ55" s="37"/>
-      <c r="BA55" s="37"/>
+        <v>212</v>
+      </c>
+      <c r="AD55" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE55" s="37"/>
+      <c r="AF55" s="37"/>
+      <c r="AG55" s="37"/>
+      <c r="AH55" s="37"/>
+      <c r="AI55" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ55" s="38"/>
+      <c r="AK55" s="38"/>
+      <c r="AL55" s="38"/>
+      <c r="AM55" s="38"/>
+      <c r="AN55" s="38"/>
+      <c r="AO55" s="38"/>
+      <c r="AP55" s="38"/>
+      <c r="AQ55" s="38"/>
+      <c r="AR55" s="38"/>
+      <c r="AS55" s="38"/>
+      <c r="AT55" s="38"/>
+      <c r="AU55" s="38"/>
+      <c r="AV55" s="38"/>
+      <c r="AW55" s="38"/>
+      <c r="AX55" s="38"/>
+      <c r="AY55" s="38"/>
+      <c r="AZ55" s="38"/>
+      <c r="BA55" s="38"/>
     </row>
     <row r="56" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G56" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AD57" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P58" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:53" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q67" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="31"/>
-      <c r="W67" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="X67" s="30"/>
-      <c r="Y67" s="30"/>
-      <c r="Z67" s="30"/>
-      <c r="AA67" s="30"/>
-      <c r="AB67" s="30"/>
-      <c r="AC67" s="30"/>
-      <c r="AD67" s="30"/>
-      <c r="AE67" s="30"/>
-      <c r="AF67" s="30"/>
-      <c r="AG67" s="30"/>
-      <c r="AH67" s="30"/>
-      <c r="AI67" s="30"/>
-      <c r="AJ67" s="30"/>
-      <c r="AK67" s="30"/>
-      <c r="AL67" s="31"/>
+      <c r="Q67" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="31"/>
+      <c r="V67" s="32"/>
+      <c r="W67" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="X67" s="31"/>
+      <c r="Y67" s="31"/>
+      <c r="Z67" s="31"/>
+      <c r="AA67" s="31"/>
+      <c r="AB67" s="31"/>
+      <c r="AC67" s="31"/>
+      <c r="AD67" s="31"/>
+      <c r="AE67" s="31"/>
+      <c r="AF67" s="31"/>
+      <c r="AG67" s="31"/>
+      <c r="AH67" s="31"/>
+      <c r="AI67" s="31"/>
+      <c r="AJ67" s="31"/>
+      <c r="AK67" s="31"/>
+      <c r="AL67" s="32"/>
     </row>
     <row r="68" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q68" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="R68" s="33"/>
-      <c r="S68" s="33"/>
-      <c r="T68" s="33"/>
-      <c r="U68" s="33"/>
-      <c r="V68" s="34"/>
-      <c r="W68" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="27"/>
-      <c r="AB68" s="27"/>
-      <c r="AC68" s="27"/>
-      <c r="AD68" s="27"/>
-      <c r="AE68" s="27"/>
-      <c r="AF68" s="27"/>
-      <c r="AG68" s="27"/>
-      <c r="AH68" s="27"/>
-      <c r="AI68" s="27"/>
-      <c r="AJ68" s="27"/>
-      <c r="AK68" s="27"/>
-      <c r="AL68" s="28"/>
+      <c r="Q68" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="28"/>
+      <c r="AA68" s="28"/>
+      <c r="AB68" s="28"/>
+      <c r="AC68" s="28"/>
+      <c r="AD68" s="28"/>
+      <c r="AE68" s="28"/>
+      <c r="AF68" s="28"/>
+      <c r="AG68" s="28"/>
+      <c r="AH68" s="28"/>
+      <c r="AI68" s="28"/>
+      <c r="AJ68" s="28"/>
+      <c r="AK68" s="28"/>
+      <c r="AL68" s="29"/>
     </row>
     <row r="69" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q69" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="R69" s="33"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="33"/>
-      <c r="U69" s="33"/>
-      <c r="V69" s="34"/>
-      <c r="W69" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="27"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="27"/>
-      <c r="AB69" s="27"/>
-      <c r="AC69" s="27"/>
-      <c r="AD69" s="27"/>
-      <c r="AE69" s="27"/>
-      <c r="AF69" s="27"/>
-      <c r="AG69" s="27"/>
-      <c r="AH69" s="27"/>
-      <c r="AI69" s="27"/>
-      <c r="AJ69" s="27"/>
-      <c r="AK69" s="27"/>
-      <c r="AL69" s="28"/>
+      <c r="Q69" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="R69" s="34"/>
+      <c r="S69" s="34"/>
+      <c r="T69" s="34"/>
+      <c r="U69" s="34"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
+      <c r="AA69" s="28"/>
+      <c r="AB69" s="28"/>
+      <c r="AC69" s="28"/>
+      <c r="AD69" s="28"/>
+      <c r="AE69" s="28"/>
+      <c r="AF69" s="28"/>
+      <c r="AG69" s="28"/>
+      <c r="AH69" s="28"/>
+      <c r="AI69" s="28"/>
+      <c r="AJ69" s="28"/>
+      <c r="AK69" s="28"/>
+      <c r="AL69" s="29"/>
     </row>
     <row r="73" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D74" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E75" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="2:3" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -19117,7 +19415,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -19263,13 +19561,13 @@
     <row r="30" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
       <c r="B30" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="2:2" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -19595,7 +19893,7 @@
     </row>
     <row r="75" spans="5:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E75" s="8" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -19649,11 +19947,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C14B8-36F2-4A6D-B897-7521E40003D0}">
-  <dimension ref="A1:AP131"/>
+  <dimension ref="A1:AS129"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P97" sqref="P97"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -20053,185 +20349,351 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="M81"/>
     </row>
-    <row r="84" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F84" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="2:42" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="5" t="s">
+    <row r="87" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="8"/>
+      <c r="AC87" s="8"/>
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="8"/>
+      <c r="AG87" s="8"/>
+      <c r="AH87" s="8"/>
+      <c r="AI87" s="8"/>
+      <c r="AJ87" s="8"/>
+      <c r="AK87" s="8"/>
+      <c r="AL87" s="8"/>
+      <c r="AM87" s="8"/>
+      <c r="AN87" s="8"/>
+      <c r="AO87" s="8"/>
+      <c r="AP87" s="8"/>
+      <c r="AQ87" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR87" s="15"/>
+      <c r="AS87" s="15"/>
+    </row>
+    <row r="88" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D88" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E89" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="90" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E90" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="2:45" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C89" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="8"/>
-      <c r="Y89" s="8"/>
-      <c r="Z89" s="8"/>
-      <c r="AA89" s="8"/>
-      <c r="AB89" s="8"/>
-      <c r="AC89" s="8"/>
-      <c r="AD89" s="8"/>
-      <c r="AE89" s="8"/>
-      <c r="AF89" s="8"/>
-      <c r="AG89" s="8"/>
-      <c r="AH89" s="8"/>
-      <c r="AI89" s="8"/>
-      <c r="AJ89" s="8"/>
-      <c r="AK89" s="8"/>
-      <c r="AL89" s="8"/>
-      <c r="AM89" s="8"/>
-      <c r="AN89" s="8"/>
-      <c r="AO89" s="8"/>
-      <c r="AP89" s="8"/>
-    </row>
-    <row r="90" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D90" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="92" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D92" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="93" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E93" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="94" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E94" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="96" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C96" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="8"/>
-      <c r="X96" s="8"/>
-      <c r="Y96" s="8"/>
-      <c r="Z96" s="8"/>
-      <c r="AA96" s="8"/>
-      <c r="AB96" s="8"/>
-      <c r="AC96" s="8"/>
-      <c r="AD96" s="8"/>
-      <c r="AE96" s="8"/>
-      <c r="AF96" s="8"/>
-      <c r="AG96" s="8"/>
-      <c r="AH96" s="8"/>
-      <c r="AI96" s="8"/>
-      <c r="AJ96" s="8"/>
-      <c r="AK96" s="8"/>
-      <c r="AL96" s="8"/>
-      <c r="AM96" s="8"/>
-      <c r="AN96" s="8"/>
-      <c r="AO96" s="8"/>
-      <c r="AP96" s="8"/>
-    </row>
-    <row r="97" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D97" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="105" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C105" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="106" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D106" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="108" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D108" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="109" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="8"/>
+      <c r="X95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="8"/>
+      <c r="AB95" s="8"/>
+      <c r="AC95" s="8"/>
+      <c r="AD95" s="8"/>
+      <c r="AE95" s="8"/>
+      <c r="AF95" s="8"/>
+      <c r="AG95" s="8"/>
+      <c r="AH95" s="8"/>
+      <c r="AI95" s="8"/>
+      <c r="AJ95" s="8"/>
+      <c r="AK95" s="8"/>
+      <c r="AL95" s="8"/>
+      <c r="AM95" s="8"/>
+      <c r="AN95" s="8"/>
+      <c r="AO95" s="8"/>
+      <c r="AP95" s="8"/>
+    </row>
+    <row r="96" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D98" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E99" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E100" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C102" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8"/>
+      <c r="Q102" s="8"/>
+      <c r="R102" s="8"/>
+      <c r="S102" s="8"/>
+      <c r="T102" s="8"/>
+      <c r="U102" s="8"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="8"/>
+      <c r="X102" s="8"/>
+      <c r="Y102" s="8"/>
+      <c r="Z102" s="8"/>
+      <c r="AA102" s="8"/>
+      <c r="AB102" s="8"/>
+      <c r="AC102" s="8"/>
+      <c r="AD102" s="8"/>
+      <c r="AE102" s="8"/>
+      <c r="AF102" s="8"/>
+      <c r="AG102" s="8"/>
+      <c r="AH102" s="8"/>
+      <c r="AI102" s="8"/>
+      <c r="AJ102" s="8"/>
+      <c r="AK102" s="8"/>
+      <c r="AL102" s="8"/>
+      <c r="AM102" s="8"/>
+      <c r="AN102" s="8"/>
+      <c r="AO102" s="8"/>
+      <c r="AP102" s="8"/>
+    </row>
+    <row r="103" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D103" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E104" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E106" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F107" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E109" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="110" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F110" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="111" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E111" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="112" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F112" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="113" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G113" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="115" spans="4:7" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D115" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B131" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F111" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="114" spans="2:42" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C116" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+      <c r="AB116" s="8"/>
+      <c r="AC116" s="8"/>
+      <c r="AD116" s="8"/>
+      <c r="AE116" s="8"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="8"/>
+      <c r="AH116" s="8"/>
+      <c r="AI116" s="8"/>
+      <c r="AJ116" s="8"/>
+      <c r="AK116" s="8"/>
+      <c r="AL116" s="8"/>
+      <c r="AM116" s="8"/>
+      <c r="AN116" s="8"/>
+      <c r="AO116" s="8"/>
+      <c r="AP116" s="8"/>
+    </row>
+    <row r="117" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D117" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E118" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="120" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D120" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E121" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C123" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="8"/>
+      <c r="R123" s="8"/>
+      <c r="S123" s="8"/>
+      <c r="T123" s="8"/>
+      <c r="U123" s="8"/>
+      <c r="V123" s="8"/>
+      <c r="W123" s="8"/>
+      <c r="X123" s="8"/>
+      <c r="Y123" s="8"/>
+      <c r="Z123" s="8"/>
+      <c r="AA123" s="8"/>
+      <c r="AB123" s="8"/>
+      <c r="AC123" s="8"/>
+      <c r="AD123" s="8"/>
+      <c r="AE123" s="8"/>
+      <c r="AF123" s="8"/>
+      <c r="AG123" s="8"/>
+      <c r="AH123" s="8"/>
+      <c r="AI123" s="8"/>
+      <c r="AJ123" s="8"/>
+      <c r="AK123" s="8"/>
+      <c r="AL123" s="8"/>
+      <c r="AM123" s="8"/>
+      <c r="AN123" s="8"/>
+      <c r="AO123" s="8"/>
+      <c r="AP123" s="8"/>
+    </row>
+    <row r="124" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D124" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E125" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" s="6" t="s">
         <v>13</v>
       </c>
     </row>
